--- a/team_specific_matrix/Idaho_A.xlsx
+++ b/team_specific_matrix/Idaho_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1815980629539952</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="C2">
-        <v>0.5641646489104116</v>
+        <v>0.5515151515151515</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009685230024213076</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.12590799031477</v>
+        <v>0.1353535353535354</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1186440677966102</v>
+        <v>0.1131313131313131</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01271186440677966</v>
+        <v>0.01083032490974729</v>
       </c>
       <c r="C3">
-        <v>0.03813559322033899</v>
+        <v>0.03610108303249097</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02966101694915254</v>
+        <v>0.03249097472924187</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7372881355932204</v>
+        <v>0.7256317689530686</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1822033898305085</v>
+        <v>0.1949458483754513</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02173913043478261</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02173913043478261</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="P4">
-        <v>0.6739130434782609</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2826086956521739</v>
+        <v>0.2786885245901639</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07336956521739131</v>
+        <v>0.06094808126410835</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0108695652173913</v>
+        <v>0.009029345372460496</v>
       </c>
       <c r="E6">
-        <v>0.002717391304347826</v>
+        <v>0.002257336343115124</v>
       </c>
       <c r="F6">
-        <v>0.04076086956521739</v>
+        <v>0.04740406320541761</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2282608695652174</v>
+        <v>0.2392776523702032</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01630434782608696</v>
+        <v>0.01354401805869074</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1630434782608696</v>
+        <v>0.1647855530474041</v>
       </c>
       <c r="R6">
-        <v>0.1005434782608696</v>
+        <v>0.09255079006772009</v>
       </c>
       <c r="S6">
-        <v>0.3641304347826087</v>
+        <v>0.3702031602708803</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1262458471760797</v>
+        <v>0.1260744985673352</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0132890365448505</v>
+        <v>0.01146131805157593</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08637873754152824</v>
+        <v>0.08022922636103152</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09634551495016612</v>
+        <v>0.1002865329512894</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009966777408637873</v>
+        <v>0.0171919770773639</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2225913621262458</v>
+        <v>0.2091690544412607</v>
       </c>
       <c r="R7">
-        <v>0.05315614617940199</v>
+        <v>0.05444126074498568</v>
       </c>
       <c r="S7">
-        <v>0.3920265780730897</v>
+        <v>0.4011461318051576</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08039492242595205</v>
+        <v>0.08194774346793349</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01833568406205924</v>
+        <v>0.01781472684085511</v>
       </c>
       <c r="E8">
-        <v>0.002820874471086037</v>
+        <v>0.002375296912114014</v>
       </c>
       <c r="F8">
-        <v>0.06488011283497884</v>
+        <v>0.06294536817102138</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1043723554301834</v>
+        <v>0.1057007125890736</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01833568406205924</v>
+        <v>0.02375296912114014</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2172073342736248</v>
+        <v>0.2042755344418052</v>
       </c>
       <c r="R8">
-        <v>0.09732016925246827</v>
+        <v>0.09857482185273159</v>
       </c>
       <c r="S8">
-        <v>0.3963328631875881</v>
+        <v>0.4026128266033254</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09025270758122744</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02166064981949458</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E9">
-        <v>0.003610108303249098</v>
+        <v>0.003174603174603175</v>
       </c>
       <c r="F9">
-        <v>0.09025270758122744</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1083032490974729</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02166064981949458</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1768953068592058</v>
+        <v>0.1936507936507937</v>
       </c>
       <c r="R9">
-        <v>0.09747292418772563</v>
+        <v>0.09206349206349207</v>
       </c>
       <c r="S9">
-        <v>0.3898916967509025</v>
+        <v>0.3841269841269842</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1068830442081701</v>
+        <v>0.1077348066298343</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01231113598209289</v>
+        <v>0.0147329650092081</v>
       </c>
       <c r="E10">
-        <v>0.0005595970900951316</v>
+        <v>0.0009208103130755065</v>
       </c>
       <c r="F10">
-        <v>0.08449916060436485</v>
+        <v>0.08517495395948435</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1096810296586458</v>
+        <v>0.1077348066298343</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02350307778399552</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2076105204252938</v>
+        <v>0.2131675874769798</v>
       </c>
       <c r="R10">
-        <v>0.08282036933407946</v>
+        <v>0.08379373848987108</v>
       </c>
       <c r="S10">
-        <v>0.3721320649132625</v>
+        <v>0.3646408839779006</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1197183098591549</v>
+        <v>0.1203883495145631</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08685446009389672</v>
+        <v>0.0912621359223301</v>
       </c>
       <c r="K11">
-        <v>0.1525821596244132</v>
+        <v>0.1631067961165049</v>
       </c>
       <c r="L11">
-        <v>0.6291079812206573</v>
+        <v>0.6077669902912621</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01173708920187793</v>
+        <v>0.01747572815533981</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.725</v>
+        <v>0.7244582043343654</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2071428571428572</v>
+        <v>0.1981424148606811</v>
       </c>
       <c r="K12">
-        <v>0.007142857142857143</v>
+        <v>0.006191950464396285</v>
       </c>
       <c r="L12">
-        <v>0.03928571428571428</v>
+        <v>0.03715170278637771</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02142857142857143</v>
+        <v>0.03405572755417956</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6447368421052632</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3289473684210527</v>
+        <v>0.3176470588235294</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02259887005649718</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1610169491525424</v>
+        <v>0.1654846335697399</v>
       </c>
       <c r="I15">
-        <v>0.04519774011299435</v>
+        <v>0.04491725768321513</v>
       </c>
       <c r="J15">
-        <v>0.3926553672316384</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="K15">
-        <v>0.06214689265536723</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01129943502824859</v>
+        <v>0.009456264775413711</v>
       </c>
       <c r="N15">
-        <v>0.002824858757062147</v>
+        <v>0.002364066193853428</v>
       </c>
       <c r="O15">
-        <v>0.07344632768361582</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2288135593220339</v>
+        <v>0.2387706855791962</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02</v>
+        <v>0.02356902356902357</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.156</v>
+        <v>0.1683501683501684</v>
       </c>
       <c r="I16">
-        <v>0.096</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.4</v>
+        <v>0.3905723905723906</v>
       </c>
       <c r="K16">
-        <v>0.128</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.024</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.056</v>
+        <v>0.05387205387205387</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.12</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01571428571428572</v>
+        <v>0.01430274135876043</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1828571428571429</v>
+        <v>0.1728247914183552</v>
       </c>
       <c r="I17">
-        <v>0.08857142857142856</v>
+        <v>0.08820023837902265</v>
       </c>
       <c r="J17">
-        <v>0.4257142857142857</v>
+        <v>0.4457687723480334</v>
       </c>
       <c r="K17">
-        <v>0.09428571428571429</v>
+        <v>0.09058402860548272</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02714285714285714</v>
+        <v>0.02383790226460071</v>
       </c>
       <c r="N17">
-        <v>0.001428571428571429</v>
+        <v>0.001191895113230036</v>
       </c>
       <c r="O17">
-        <v>0.08</v>
+        <v>0.07866507747318235</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08428571428571428</v>
+        <v>0.08462455303933254</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02027027027027027</v>
+        <v>0.0198300283286119</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2060810810810811</v>
+        <v>0.2181303116147309</v>
       </c>
       <c r="I18">
-        <v>0.1047297297297297</v>
+        <v>0.09915014164305949</v>
       </c>
       <c r="J18">
-        <v>0.3412162162162162</v>
+        <v>0.3512747875354107</v>
       </c>
       <c r="K18">
-        <v>0.09121621621621621</v>
+        <v>0.07932011331444759</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02027027027027027</v>
+        <v>0.0169971671388102</v>
       </c>
       <c r="N18">
-        <v>0.003378378378378379</v>
+        <v>0.0028328611898017</v>
       </c>
       <c r="O18">
-        <v>0.08108108108108109</v>
+        <v>0.07365439093484419</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1317567567567567</v>
+        <v>0.1388101983002833</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01460674157303371</v>
+        <v>0.015406162464986</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2421348314606742</v>
+        <v>0.2371615312791783</v>
       </c>
       <c r="I19">
-        <v>0.0853932584269663</v>
+        <v>0.07889822595704948</v>
       </c>
       <c r="J19">
-        <v>0.350561797752809</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K19">
-        <v>0.1157303370786517</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02415730337078652</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="N19">
-        <v>0.001685393258426966</v>
+        <v>0.001400560224089636</v>
       </c>
       <c r="O19">
-        <v>0.07134831460674157</v>
+        <v>0.07282913165266107</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09438202247191012</v>
+        <v>0.09570494864612512</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Idaho_A.xlsx
+++ b/team_specific_matrix/Idaho_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1878787878787879</v>
+        <v>0.1907308377896613</v>
       </c>
       <c r="C2">
-        <v>0.5515151515151515</v>
+        <v>0.5472370766488414</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01212121212121212</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1353535353535354</v>
+        <v>0.1443850267379679</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1131313131313131</v>
+        <v>0.106951871657754</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01083032490974729</v>
+        <v>0.009584664536741214</v>
       </c>
       <c r="C3">
-        <v>0.03610108303249097</v>
+        <v>0.03194888178913738</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03249097472924187</v>
+        <v>0.03194888178913738</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7256317689530686</v>
+        <v>0.7220447284345048</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1949458483754513</v>
+        <v>0.2044728434504792</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04918032786885246</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01639344262295082</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="P4">
-        <v>0.6557377049180327</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2786885245901639</v>
+        <v>0.2876712328767123</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06094808126410835</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009029345372460496</v>
+        <v>0.008080808080808081</v>
       </c>
       <c r="E6">
-        <v>0.002257336343115124</v>
+        <v>0.00202020202020202</v>
       </c>
       <c r="F6">
-        <v>0.04740406320541761</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2392776523702032</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01354401805869074</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1647855530474041</v>
+        <v>0.1656565656565657</v>
       </c>
       <c r="R6">
-        <v>0.09255079006772009</v>
+        <v>0.08686868686868687</v>
       </c>
       <c r="S6">
-        <v>0.3702031602708803</v>
+        <v>0.3595959595959596</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1260744985673352</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01146131805157593</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08022922636103152</v>
+        <v>0.07788944723618091</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1002865329512894</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0171919770773639</v>
+        <v>0.01758793969849246</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2091690544412607</v>
+        <v>0.1984924623115578</v>
       </c>
       <c r="R7">
-        <v>0.05444126074498568</v>
+        <v>0.05025125628140704</v>
       </c>
       <c r="S7">
-        <v>0.4011461318051576</v>
+        <v>0.4095477386934673</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08194774346793349</v>
+        <v>0.0824524312896406</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01781472684085511</v>
+        <v>0.01585623678646934</v>
       </c>
       <c r="E8">
-        <v>0.002375296912114014</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="F8">
-        <v>0.06294536817102138</v>
+        <v>0.06448202959830866</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1057007125890736</v>
+        <v>0.1025369978858351</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02375296912114014</v>
+        <v>0.02642706131078224</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2042755344418052</v>
+        <v>0.200845665961945</v>
       </c>
       <c r="R8">
-        <v>0.09857482185273159</v>
+        <v>0.1004228329809725</v>
       </c>
       <c r="S8">
-        <v>0.4026128266033254</v>
+        <v>0.4048625792811839</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08571428571428572</v>
+        <v>0.09269662921348315</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02857142857142857</v>
+        <v>0.03089887640449438</v>
       </c>
       <c r="E9">
-        <v>0.003174603174603175</v>
+        <v>0.002808988764044944</v>
       </c>
       <c r="F9">
-        <v>0.08888888888888889</v>
+        <v>0.08146067415730338</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1047619047619048</v>
+        <v>0.1095505617977528</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01904761904761905</v>
+        <v>0.01966292134831461</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1936507936507937</v>
+        <v>0.1882022471910112</v>
       </c>
       <c r="R9">
-        <v>0.09206349206349207</v>
+        <v>0.09269662921348315</v>
       </c>
       <c r="S9">
-        <v>0.3841269841269842</v>
+        <v>0.3820224719101123</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1077348066298343</v>
+        <v>0.1073049938093273</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0147329650092081</v>
+        <v>0.01650846058605035</v>
       </c>
       <c r="E10">
-        <v>0.0009208103130755065</v>
+        <v>0.0008254230293025176</v>
       </c>
       <c r="F10">
-        <v>0.08517495395948435</v>
+        <v>0.0821295914156005</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1077348066298343</v>
+        <v>0.1064795707800248</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02209944751381215</v>
+        <v>0.02393726784977301</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2131675874769798</v>
+        <v>0.2162608336772596</v>
       </c>
       <c r="R10">
-        <v>0.08379373848987108</v>
+        <v>0.08419314898885678</v>
       </c>
       <c r="S10">
-        <v>0.3646408839779006</v>
+        <v>0.3623607098638052</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1203883495145631</v>
+        <v>0.125</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0912621359223301</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="K11">
-        <v>0.1631067961165049</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L11">
-        <v>0.6077669902912621</v>
+        <v>0.6024305555555556</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01747572815533981</v>
+        <v>0.01736111111111111</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7244582043343654</v>
+        <v>0.7320441988950276</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1981424148606811</v>
+        <v>0.1906077348066298</v>
       </c>
       <c r="K12">
-        <v>0.006191950464396285</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="L12">
-        <v>0.03715170278637771</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03405572755417956</v>
+        <v>0.03314917127071823</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6588235294117647</v>
+        <v>0.6701030927835051</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3176470588235294</v>
+        <v>0.2989690721649484</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02352941176470588</v>
+        <v>0.03092783505154639</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02127659574468085</v>
+        <v>0.01867219917012448</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1654846335697399</v>
+        <v>0.1618257261410788</v>
       </c>
       <c r="I15">
-        <v>0.04491725768321513</v>
+        <v>0.04356846473029045</v>
       </c>
       <c r="J15">
-        <v>0.3829787234042553</v>
+        <v>0.3817427385892116</v>
       </c>
       <c r="K15">
-        <v>0.06382978723404255</v>
+        <v>0.06639004149377593</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009456264775413711</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="N15">
-        <v>0.002364066193853428</v>
+        <v>0.002074688796680498</v>
       </c>
       <c r="O15">
-        <v>0.07092198581560284</v>
+        <v>0.08091286307053942</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2387706855791962</v>
+        <v>0.2365145228215768</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02356902356902357</v>
+        <v>0.02046783625730994</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1683501683501684</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="I16">
-        <v>0.09090909090909091</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="J16">
-        <v>0.3905723905723906</v>
+        <v>0.3976608187134503</v>
       </c>
       <c r="K16">
-        <v>0.1313131313131313</v>
+        <v>0.1257309941520468</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0202020202020202</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05387205387205387</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1212121212121212</v>
+        <v>0.1286549707602339</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01430274135876043</v>
+        <v>0.01918976545842218</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1728247914183552</v>
+        <v>0.1748400852878465</v>
       </c>
       <c r="I17">
-        <v>0.08820023837902265</v>
+        <v>0.08742004264392324</v>
       </c>
       <c r="J17">
-        <v>0.4457687723480334</v>
+        <v>0.4339019189765458</v>
       </c>
       <c r="K17">
-        <v>0.09058402860548272</v>
+        <v>0.09381663113006397</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02383790226460071</v>
+        <v>0.02665245202558635</v>
       </c>
       <c r="N17">
-        <v>0.001191895113230036</v>
+        <v>0.001066098081023454</v>
       </c>
       <c r="O17">
-        <v>0.07866507747318235</v>
+        <v>0.07995735607675906</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08462455303933254</v>
+        <v>0.08315565031982942</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0198300283286119</v>
+        <v>0.02284263959390863</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2181303116147309</v>
+        <v>0.2157360406091371</v>
       </c>
       <c r="I18">
-        <v>0.09915014164305949</v>
+        <v>0.09390862944162437</v>
       </c>
       <c r="J18">
-        <v>0.3512747875354107</v>
+        <v>0.3527918781725888</v>
       </c>
       <c r="K18">
-        <v>0.07932011331444759</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0169971671388102</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="N18">
-        <v>0.0028328611898017</v>
+        <v>0.002538071065989848</v>
       </c>
       <c r="O18">
-        <v>0.07365439093484419</v>
+        <v>0.07360406091370558</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1388101983002833</v>
+        <v>0.1319796954314721</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.015406162464986</v>
+        <v>0.01670146137787056</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2371615312791783</v>
+        <v>0.237160751565762</v>
       </c>
       <c r="I19">
-        <v>0.07889822595704948</v>
+        <v>0.08225469728601252</v>
       </c>
       <c r="J19">
-        <v>0.3571428571428572</v>
+        <v>0.3569937369519833</v>
       </c>
       <c r="K19">
-        <v>0.1176470588235294</v>
+        <v>0.1144050104384134</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02380952380952381</v>
+        <v>0.02338204592901879</v>
       </c>
       <c r="N19">
-        <v>0.001400560224089636</v>
+        <v>0.001670146137787056</v>
       </c>
       <c r="O19">
-        <v>0.07282913165266107</v>
+        <v>0.07181628392484342</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09570494864612512</v>
+        <v>0.09561586638830898</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Idaho_A.xlsx
+++ b/team_specific_matrix/Idaho_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1907308377896613</v>
+        <v>0.1907216494845361</v>
       </c>
       <c r="C2">
-        <v>0.5472370766488414</v>
+        <v>0.5481099656357389</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0106951871657754</v>
+        <v>0.01202749140893471</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1443850267379679</v>
+        <v>0.1460481099656357</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.106951871657754</v>
+        <v>0.1030927835051546</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009584664536741214</v>
+        <v>0.009202453987730062</v>
       </c>
       <c r="C3">
-        <v>0.03194888178913738</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03194888178913738</v>
+        <v>0.03374233128834356</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7220447284345048</v>
+        <v>0.7177914110429447</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2044728434504792</v>
+        <v>0.2085889570552147</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0410958904109589</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0136986301369863</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P4">
-        <v>0.6575342465753424</v>
+        <v>0.6447368421052632</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2876712328767123</v>
+        <v>0.3026315789473684</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06060606060606061</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008080808080808081</v>
+        <v>0.007766990291262136</v>
       </c>
       <c r="E6">
-        <v>0.00202020202020202</v>
+        <v>0.001941747572815534</v>
       </c>
       <c r="F6">
-        <v>0.0505050505050505</v>
+        <v>0.05048543689320388</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2545454545454545</v>
+        <v>0.2563106796116505</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01212121212121212</v>
+        <v>0.01359223300970874</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1656565656565657</v>
+        <v>0.1689320388349514</v>
       </c>
       <c r="R6">
-        <v>0.08686868686868687</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="S6">
-        <v>0.3595959595959596</v>
+        <v>0.3553398058252427</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1256281407035176</v>
+        <v>0.1213592233009709</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01507537688442211</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07788944723618091</v>
+        <v>0.08495145631067962</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1055276381909548</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01758793969849246</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1984924623115578</v>
+        <v>0.1966019417475728</v>
       </c>
       <c r="R7">
-        <v>0.05025125628140704</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="S7">
-        <v>0.4095477386934673</v>
+        <v>0.4029126213592233</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0824524312896406</v>
+        <v>0.0872210953346856</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01585623678646934</v>
+        <v>0.01521298174442191</v>
       </c>
       <c r="E8">
-        <v>0.002114164904862579</v>
+        <v>0.002028397565922921</v>
       </c>
       <c r="F8">
-        <v>0.06448202959830866</v>
+        <v>0.06490872210953347</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1025369978858351</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02642706131078224</v>
+        <v>0.02738336713995943</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.200845665961945</v>
+        <v>0.1977687626774848</v>
       </c>
       <c r="R8">
-        <v>0.1004228329809725</v>
+        <v>0.09837728194726167</v>
       </c>
       <c r="S8">
-        <v>0.4048625792811839</v>
+        <v>0.4036511156186612</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09269662921348315</v>
+        <v>0.09510869565217392</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03089887640449438</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="E9">
-        <v>0.002808988764044944</v>
+        <v>0.002717391304347826</v>
       </c>
       <c r="F9">
-        <v>0.08146067415730338</v>
+        <v>0.08152173913043478</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1095505617977528</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01966292134831461</v>
+        <v>0.01902173913043478</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1882022471910112</v>
+        <v>0.1902173913043478</v>
       </c>
       <c r="R9">
-        <v>0.09269662921348315</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="S9">
-        <v>0.3820224719101123</v>
+        <v>0.3777173913043478</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1073049938093273</v>
+        <v>0.1074148296593186</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01650846058605035</v>
+        <v>0.01683366733466934</v>
       </c>
       <c r="E10">
-        <v>0.0008254230293025176</v>
+        <v>0.0008016032064128256</v>
       </c>
       <c r="F10">
-        <v>0.0821295914156005</v>
+        <v>0.08216432865731463</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1064795707800248</v>
+        <v>0.1042084168336673</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02393726784977301</v>
+        <v>0.02364729458917836</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2162608336772596</v>
+        <v>0.2160320641282565</v>
       </c>
       <c r="R10">
-        <v>0.08419314898885678</v>
+        <v>0.08376753507014029</v>
       </c>
       <c r="S10">
-        <v>0.3623607098638052</v>
+        <v>0.3651302605210421</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08854166666666667</v>
+        <v>0.095</v>
       </c>
       <c r="K11">
-        <v>0.1666666666666667</v>
+        <v>0.17</v>
       </c>
       <c r="L11">
-        <v>0.6024305555555556</v>
+        <v>0.5933333333333334</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01736111111111111</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7320441988950276</v>
+        <v>0.7331536388140162</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1906077348066298</v>
+        <v>0.1913746630727763</v>
       </c>
       <c r="K12">
-        <v>0.005524861878453038</v>
+        <v>0.005390835579514825</v>
       </c>
       <c r="L12">
-        <v>0.03867403314917127</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03314917127071823</v>
+        <v>0.03234501347708895</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6701030927835051</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2989690721649484</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03092783505154639</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01867219917012448</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1618257261410788</v>
+        <v>0.1603206412825651</v>
       </c>
       <c r="I15">
-        <v>0.04356846473029045</v>
+        <v>0.04208416833667335</v>
       </c>
       <c r="J15">
-        <v>0.3817427385892116</v>
+        <v>0.3827655310621242</v>
       </c>
       <c r="K15">
-        <v>0.06639004149377593</v>
+        <v>0.06813627254509018</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008298755186721992</v>
+        <v>0.01002004008016032</v>
       </c>
       <c r="N15">
-        <v>0.002074688796680498</v>
+        <v>0.002004008016032064</v>
       </c>
       <c r="O15">
-        <v>0.08091286307053942</v>
+        <v>0.0781563126252505</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2365145228215768</v>
+        <v>0.2384769539078156</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02046783625730994</v>
+        <v>0.01971830985915493</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1754385964912281</v>
+        <v>0.1774647887323944</v>
       </c>
       <c r="I16">
-        <v>0.08187134502923976</v>
+        <v>0.07887323943661972</v>
       </c>
       <c r="J16">
-        <v>0.3976608187134503</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="K16">
-        <v>0.1257309941520468</v>
+        <v>0.123943661971831</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01754385964912281</v>
+        <v>0.01690140845070422</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05263157894736842</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1286549707602339</v>
+        <v>0.1323943661971831</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01918976545842218</v>
+        <v>0.01859504132231405</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1748400852878465</v>
+        <v>0.1807851239669422</v>
       </c>
       <c r="I17">
-        <v>0.08742004264392324</v>
+        <v>0.08677685950413223</v>
       </c>
       <c r="J17">
-        <v>0.4339019189765458</v>
+        <v>0.4297520661157025</v>
       </c>
       <c r="K17">
-        <v>0.09381663113006397</v>
+        <v>0.09194214876033058</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02665245202558635</v>
+        <v>0.02685950413223141</v>
       </c>
       <c r="N17">
-        <v>0.001066098081023454</v>
+        <v>0.001033057851239669</v>
       </c>
       <c r="O17">
-        <v>0.07995735607675906</v>
+        <v>0.08057851239669421</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08315565031982942</v>
+        <v>0.08367768595041322</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02284263959390863</v>
+        <v>0.02227722772277228</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2157360406091371</v>
+        <v>0.2128712871287129</v>
       </c>
       <c r="I18">
-        <v>0.09390862944162437</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="J18">
-        <v>0.3527918781725888</v>
+        <v>0.3514851485148515</v>
       </c>
       <c r="K18">
-        <v>0.08629441624365482</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02030456852791878</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="N18">
-        <v>0.002538071065989848</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="O18">
-        <v>0.07360406091370558</v>
+        <v>0.07178217821782178</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1319796954314721</v>
+        <v>0.1311881188118812</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01670146137787056</v>
+        <v>0.0168946098149638</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.237160751565762</v>
+        <v>0.2377312952534192</v>
       </c>
       <c r="I19">
-        <v>0.08225469728601252</v>
+        <v>0.08286403861625101</v>
       </c>
       <c r="J19">
-        <v>0.3569937369519833</v>
+        <v>0.3527755430410298</v>
       </c>
       <c r="K19">
-        <v>0.1144050104384134</v>
+        <v>0.1142397425583266</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02338204592901879</v>
+        <v>0.02373290426387771</v>
       </c>
       <c r="N19">
-        <v>0.001670146137787056</v>
+        <v>0.001609010458567981</v>
       </c>
       <c r="O19">
-        <v>0.07181628392484342</v>
+        <v>0.07160096540627514</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09561586638830898</v>
+        <v>0.09855189058728882</v>
       </c>
     </row>
   </sheetData>
